--- a/data/trans_camb/P12_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>4.231051499213337</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8.536932716425802</v>
+        <v>8.536932716425804</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>7.335172034161243</v>
@@ -664,7 +664,7 @@
         <v>7.401361307309531</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>12.0233521973415</v>
+        <v>12.02335219734151</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.738977543913172</v>
+        <v>2.08818003060547</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.365621383039327</v>
+        <v>1.620391553874871</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.805664970797883</v>
+        <v>5.372294408422749</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.393636526894179</v>
+        <v>4.610602323238536</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>6.268956316926577</v>
+        <v>6.616903026445383</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>11.43541259423015</v>
+        <v>11.25599122247877</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>4.227877058228929</v>
+        <v>4.200464646501741</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.202056609577328</v>
+        <v>5.194621608358403</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>9.773947431315937</v>
+        <v>9.382190624554282</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.407360843832958</v>
+        <v>7.980803115564481</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.353712396847177</v>
+        <v>7.42168112275579</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.01675852071267</v>
+        <v>12.21220388895452</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.11114981671002</v>
+        <v>10.34929167124983</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>12.8857729145865</v>
+        <v>13.58591634057976</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>17.52548540777024</v>
+        <v>17.80805409846577</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.315228096116785</v>
+        <v>8.40011618323409</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.702718066307261</v>
+        <v>9.548594219947139</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>14.48948992802767</v>
+        <v>14.39362849113747</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.4660007449377076</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.9402431064895254</v>
+        <v>0.9402431064895257</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.6357236013907238</v>
@@ -760,7 +760,7 @@
         <v>0.8469667047856431</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1.245511547021424</v>
+        <v>1.245511547021425</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.601369434595755</v>
@@ -769,7 +769,7 @@
         <v>0.7077660970967746</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1.149750796563354</v>
+        <v>1.149750796563355</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1508545543902892</v>
+        <v>0.178262306631384</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1280898724709691</v>
+        <v>0.1543335999645313</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4427686041545606</v>
+        <v>0.5023875256205472</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.335843551986019</v>
+        <v>0.3549671301438704</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4890084769910693</v>
+        <v>0.5205880869764777</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8820808457841014</v>
+        <v>0.8911441363931039</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.371088672615094</v>
+        <v>0.3745370145473394</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4621783893644675</v>
+        <v>0.4546066134553959</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.8469696511549613</v>
+        <v>0.8245493594889577</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.9270115123781678</v>
+        <v>1.023269675697676</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9433260762478008</v>
+        <v>0.9519603914993314</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.431881202352554</v>
+        <v>1.506173820834122</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.9825884993121782</v>
+        <v>1.003208322759919</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.261371875682826</v>
+        <v>1.286188576646113</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.726157888692031</v>
+        <v>1.759502217397704</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8709013770141451</v>
+        <v>0.8921875776852226</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.008355883788719</v>
+        <v>0.9849461841068177</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.502489405410072</v>
+        <v>1.480944355476065</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>2.378109685104412</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6.147677315960929</v>
+        <v>6.14767731596093</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>4.353301636938623</v>
@@ -878,7 +878,7 @@
         <v>2.432487965746145</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>6.099171488922817</v>
+        <v>6.099171488922818</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.478204183971328</v>
+        <v>1.411343422852856</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9545585718761582</v>
+        <v>1.065341562479014</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.444462940095303</v>
+        <v>4.54134791701148</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.517013441971194</v>
+        <v>2.424232143578272</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5103260735285461</v>
+        <v>0.7759233908474276</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.108759324474208</v>
+        <v>4.117450631665919</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.444662599120946</v>
+        <v>2.42178622355586</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.284379767338596</v>
+        <v>1.308976876227975</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.906997738747539</v>
+        <v>4.892421611968042</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.36963847431818</v>
+        <v>4.261942387947839</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.807854061825548</v>
+        <v>3.737468486904353</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.810063513961016</v>
+        <v>7.922181716578248</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.532717672782446</v>
+        <v>6.355578968687572</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.234226713322074</v>
+        <v>4.436287373306371</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.684985107362197</v>
+        <v>7.691632368707346</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.817080357562541</v>
+        <v>4.747246004403323</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.601120184694821</v>
+        <v>3.569199102698427</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.250010520701766</v>
+        <v>7.310675247795591</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.3194925871562095</v>
+        <v>0.3144908110368382</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2149924201694943</v>
+        <v>0.2481773148205654</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.033513996408999</v>
+        <v>1.086052238956304</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3451043987352459</v>
+        <v>0.3131374339524082</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06705116207121055</v>
+        <v>0.08610393132898006</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5498380875283971</v>
+        <v>0.5412962959123716</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.448847221521035</v>
+        <v>0.4310572024585835</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2372297260386903</v>
+        <v>0.229822068969127</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.8662513921612199</v>
+        <v>0.9041327432065961</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.579093364189494</v>
+        <v>1.52767326372898</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.312955812944781</v>
+        <v>1.383529078726352</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.816194116626032</v>
+        <v>2.958582022741702</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.179870678629174</v>
+        <v>1.125272110836297</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7437237526992836</v>
+        <v>0.7776924462217601</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.395935593736302</v>
+        <v>1.38640118949494</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.106047059435974</v>
+        <v>1.100488289301726</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8143824666894303</v>
+        <v>0.8164606387160167</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.660857847662107</v>
+        <v>1.726031984064662</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-2.397760118353525</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.744504855863457</v>
+        <v>1.744504855863456</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.2854063266265715</v>
@@ -1092,7 +1092,7 @@
         <v>0.278209896209402</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.676916964885039</v>
+        <v>3.676916964885037</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.275608935887764</v>
+        <v>-1.407981330520654</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1482227759153207</v>
+        <v>0.2536482436352963</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.612623047408626</v>
+        <v>2.699352577405598</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.876812494103077</v>
+        <v>-3.71529249916679</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.60398670308023</v>
+        <v>-5.386004168175551</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.420720703356704</v>
+        <v>-1.534747850089996</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.74808079715376</v>
+        <v>-1.612093724847345</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.682947855620943</v>
+        <v>-1.575878976569517</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.414102270064511</v>
+        <v>1.692211212316133</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.542196582017768</v>
+        <v>3.481549855071647</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.221604063053788</v>
+        <v>5.054875139643164</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.949950815868577</v>
+        <v>7.99070075421231</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.076394964407354</v>
+        <v>3.120581181840137</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.39602686454707</v>
+        <v>0.4545166589573679</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.681579934506328</v>
+        <v>4.587390627093789</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.363312616110965</v>
+        <v>2.434204885195595</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.273958199930842</v>
+        <v>2.162437043167642</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.544790643137872</v>
+        <v>5.825642624730825</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.3550452851959265</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.258315341611833</v>
+        <v>0.2583153416118328</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.06248070643919244</v>
@@ -1197,7 +1197,7 @@
         <v>0.06090527515278806</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.8049449085438738</v>
+        <v>0.8049449085438735</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.390481385529214</v>
+        <v>-0.430009858643132</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.04157541392768536</v>
+        <v>0.0009195082352971329</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.5938596076866458</v>
+        <v>0.5392365093480532</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.472767836751646</v>
+        <v>-0.4737374132264114</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6299285614194033</v>
+        <v>-0.6146760883946567</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1648368028677214</v>
+        <v>-0.1707179086145302</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3335238495392</v>
+        <v>-0.3098897378719973</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3064315939286205</v>
+        <v>-0.294800036403439</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2566412770661255</v>
+        <v>0.2512046013235973</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.118434216752598</v>
+        <v>1.982757308718585</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.953557159191582</v>
+        <v>2.940074434953063</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>4.843138804597634</v>
+        <v>4.845466703064081</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5819597580203112</v>
+        <v>0.6429647555944853</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.08697819877559479</v>
+        <v>0.149216150985656</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9072883833311267</v>
+        <v>0.9493477907231651</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6311195054136729</v>
+        <v>0.6443673815320234</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6130097206212518</v>
+        <v>0.6001313029108238</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.552453757957442</v>
+        <v>1.642183429665027</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>2.322343025888853</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5.490396800211927</v>
+        <v>5.490396800211928</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>4.773311095816029</v>
@@ -1306,7 +1306,7 @@
         <v>2.792328383647241</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.855506137774739</v>
+        <v>5.855506137774742</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.783515937239309</v>
+        <v>1.809029679024757</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.076590272992005</v>
+        <v>1.130287640965705</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.138730004267548</v>
+        <v>4.239947388540133</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.302838651538954</v>
+        <v>3.288989230811415</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.793110343532003</v>
+        <v>1.772368436568817</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.816216006843083</v>
+        <v>4.77394742576729</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.96048756889974</v>
+        <v>2.890201552312869</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.902717028166316</v>
+        <v>1.881715616382119</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.826350193933312</v>
+        <v>4.943013194360455</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.21716848439031</v>
+        <v>4.118738184769984</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.506422873583895</v>
+        <v>3.600193308277992</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.774443812047877</v>
+        <v>6.864405776243101</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.319982629510243</v>
+        <v>6.243196322010516</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.803389573987761</v>
+        <v>4.638959587917234</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.569839479240811</v>
+        <v>7.586087780108805</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.944634592217215</v>
+        <v>4.860301433914666</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.788480936381124</v>
+        <v>3.772568358423449</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.802682093328515</v>
+        <v>6.844041632326205</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.4582631157002982</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1.083408573172808</v>
+        <v>1.083408573172809</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.5629495502287774</v>
@@ -1411,7 +1411,7 @@
         <v>0.41065368207165</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.8611398179212569</v>
+        <v>0.8611398179212573</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3162992013772544</v>
+        <v>0.3111152624494526</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1854132980182698</v>
+        <v>0.202390725823412</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.7197755063429501</v>
+        <v>0.7629115711961598</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.3710800804005044</v>
+        <v>0.3586949686190312</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1953036414494845</v>
+        <v>0.1854095248738168</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.52430212377944</v>
+        <v>0.519338463459795</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4184309562404908</v>
+        <v>0.4000712514493481</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2607623950344131</v>
+        <v>0.2538046664143332</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.6632137661792601</v>
+        <v>0.6800196640469439</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9116077810282583</v>
+        <v>0.9209525957296414</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7599672005206821</v>
+        <v>0.786388103227789</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.466031691490669</v>
+        <v>1.555674375999086</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8350126110282373</v>
+        <v>0.8081493659794895</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6119519141587173</v>
+        <v>0.5968848052811083</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.004372186892601</v>
+        <v>0.9720222095451067</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7828295520632028</v>
+        <v>0.7654441441767175</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6043931711278735</v>
+        <v>0.5859552775827694</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.066954961649853</v>
+        <v>1.089931772284491</v>
       </c>
     </row>
     <row r="28">
